--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_126.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_126.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.36, 110.76)]</t>
+          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.04, 110.76)]</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.727609', '0:00:10.723990')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(70.06, 87.32)]</t>
+          <t>[('0:00:56.280000', '0:01:08.700000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.446618', '0:00:18.139715')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[('0:00:35.820000', '0:00:37.760000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:44.200000', '0:00:54.160000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:23.020000', '0:00:32.580000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[('0:01:37.620000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:10.560000', '0:00:16.400000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[['C:7', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[('0:00:58.120000', '0:01:02.720000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4153846153846154</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:19.602494', '0:00:26.162131')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1201923076923077</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(43.926916, 52.959478)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(30.378072, 35.532902)]</t>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.08, 13.48)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(27.789047, 31.109501)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(90.6, 101.18)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
